--- a/server/subscriber_emails.xlsx
+++ b/server/subscriber_emails.xlsx
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -452,9 +452,19 @@
         <v>ansfkur@gmail.com</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>weda@gmail.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ansfsfdkur@gmail.com</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A10"/>
   </ignoredErrors>
 </worksheet>
 </file>